--- a/citations.xlsx
+++ b/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kopardevn/Documents/GitRepos/kopardev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{637B2C77-E2BF-3945-ABB1-C7A3C506FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ADFC9226-5D0E-E74E-8C49-C8C0EA39FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43480" yWindow="2160" windowWidth="26440" windowHeight="15440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>Title</t>
   </si>
@@ -115,15 +115,9 @@
     <t>Frontiers in immunology</t>
   </si>
   <si>
-    <t>Abstract B023: ONC201 kills breast cancer cells by targeting mitochondria</t>
-  </si>
-  <si>
     <t>ONC201 kills breast cancer cells in vitro by targeting mitochondria</t>
   </si>
   <si>
-    <t>Discovery of Kaposi‚Äôs sarcoma herpesvirus-encoded circular RNAs and a human antiviral circular RNA</t>
-  </si>
-  <si>
     <t>Proceedings of the National Academy of Sciences</t>
   </si>
   <si>
@@ -172,15 +166,6 @@
     <t>Microbiology</t>
   </si>
   <si>
-    <t>Cytomegalovirus Antigenic Mimicry of Human Alloreactive Peptides: A Potential Trigger for Graft versus Host Disease</t>
-  </si>
-  <si>
-    <t>arXiv preprint arXiv:1607.08444</t>
-  </si>
-  <si>
-    <t>NURF Localizes in Gene Bodies to Regulate mRNA Processing</t>
-  </si>
-  <si>
     <t>Identification of a gene in Mycoplasma hominis associated with preterm birth and microbial burden in intraamniotic infection</t>
   </si>
   <si>
@@ -220,27 +205,15 @@
     <t>Stem cell transplantation as a dynamical system: are clinical outcomes deterministic?</t>
   </si>
   <si>
-    <t>In silico derivation of HLA-specific alloreactivity potential from whole exome sequencing of stem cell transplant donor-recipient pairs</t>
-  </si>
-  <si>
     <t>Differences in vaginal microbiome in African American women versus women of European ancestry</t>
   </si>
   <si>
     <t>In silico derivation of HLA-specific alloreactivity potential from whole exome sequencing of stem-cell transplant donors and recipients: understanding the quantitative immunobiology of allogeneic transplantation</t>
   </si>
   <si>
-    <t>Structural bioinformatics in 3D: Using hydropathic interactions for protein model building, analysis and prediction</t>
-  </si>
-  <si>
-    <t>ABSTRACTS OF PAPERS OF THE AMERICAN CHEMICAL SOCIETY</t>
-  </si>
-  <si>
     <t>Applying an empirical hydropathic forcefield in refinement may improve low-resolution protein X-ray crystal structures</t>
   </si>
   <si>
-    <t>Importance of homology modeling template selection: CXCR4-based model of the kappa-opioid receptor with the novel hallucinogen salvinorin A</t>
-  </si>
-  <si>
     <t>Phase transformations during sintering of titania nanoparticles</t>
   </si>
   <si>
@@ -259,42 +232,12 @@
     <t>The Journal of Physical Chemistry C</t>
   </si>
   <si>
-    <t>Molecular Dynamics Simulation of the Hydration and Interaction between Bovine Insulin Hexamers</t>
-  </si>
-  <si>
-    <t>The 2007 Annual Meeting</t>
-  </si>
-  <si>
-    <t>Study of Titanium Dioxide Nanoparticles via Molecular Dynamics Simulations</t>
-  </si>
-  <si>
-    <t>Study of Water Adsorption on Nanoparticle Surface and Phase Transformation during Nanoparticle Sintering Via Molecular Dynamics Simulations of Tio2 Nanoparticles</t>
-  </si>
-  <si>
-    <t>The 2006 Annual Meeting</t>
-  </si>
-  <si>
     <t>Molecular dynamics simulation of titanium dioxide nanoparticle sintering</t>
   </si>
   <si>
     <t>The Journal of Physical Chemistry B</t>
   </si>
   <si>
-    <t>Molecular Dynamics Simulation of Titania Nanoparticles</t>
-  </si>
-  <si>
-    <t>The 2005 Annual Meeting</t>
-  </si>
-  <si>
-    <t>Characterizing titanium dioxide nanoparticles using molecular dynamics simulations.</t>
-  </si>
-  <si>
-    <t>Computer Simulations of Nanoparticle Sintering</t>
-  </si>
-  <si>
-    <t>Understanding Water and Its Many Roles in Biological</t>
-  </si>
-  <si>
     <t>[https://doi.org/10.4049/jimmunol.2000975](https://doi.org/10.4049/jimmunol.2000975)</t>
   </si>
   <si>
@@ -323,6 +266,111 @@
   </si>
   <si>
     <t>[https://doi.org/10.1038/s41591-019-0450-2](https://doi.org/10.1038/s41591-019-0450-2)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1097/IM9.0000000000000007](https://doi.org/10.1097/IM9.0000000000000007)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.18632/oncotarget.27387](https://doi.org/10.18632/oncotarget.27387)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.7554/eLife.49673.001](https://doi.org/10.7554/eLife.49673.001)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1016/j.neo.2019.02.003](https://doi.org/10.1016/j.neo.2019.02.003)</t>
+  </si>
+  <si>
+    <t>[https://dx.doi.org/10.3389%2Ffimmu.2018.02284](https://dx.doi.org/10.3389%2Ffimmu.2018.02284)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1186/s12864-018-5112-0](https://doi.org/10.1186/s12864-018-5112-0)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1182/blood-2018-99-119783](https://doi.org/10.1182/blood-2018-99-119783)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.3389/fimmu.2018.02284](https://doi.org/10.3389/fimmu.2018.02284)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.18632/oncotarget.24862](https://doi.org/10.18632/oncotarget.24862)</t>
+  </si>
+  <si>
+    <t>Discovery of Kaposi's sarcoma herpesvirus-encoded circular RNAs and a human antiviral circular RNA</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1073/pnas.1816183115](https://doi.org/10.1073/pnas.1816183115)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1504/IJCBDD.2017.085409](https://doi.org/10.1504/IJCBDD.2017.085409)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1371/journal.pone.0187771](https://doi.org/10.1371/journal.pone.0187771)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1016/j.bbmt.2016.12.649](https://doi.org/10.1016/j.bbmt.2016.12.649)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1016/j.bbmt.2016.12.650](https://doi.org/10.1016/j.bbmt.2016.12.650)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1016/j.bbmt.2016.12.339](https://doi.org/10.1016/j.bbmt.2016.12.339)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1371/journal.pone.0178763](https://doi.org/10.1371/journal.pone.0178763)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1016/j.bbmt.2015.11.1103](https://doi.org/10.1016/j.bbmt.2015.11.1103)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1186/s12859-016-1358-1](https://doi.org/10.1186/s12859-016-1358-1)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1099/mic.0.000238](https://doi.org/10.1099/mic.0.000238)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1016/j.ajog.2015.01.032](https://doi.org/10.1016/j.ajog.2015.01.032)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1182/blood.V126.23.3078.3078](https://doi.org/10.1182/blood.V126.23.3078.3078)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1002/prot.24813](https://doi.org/10.1002/prot.24813)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1182/blood.V126.23.4285.4285](https://doi.org/10.1182/blood.V126.23.4285.4285)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1007/7653_2015_58](https://doi.org/10.1007/7653_2015_58)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1504/IJCBDD.2014.061652](https://doi.org/10.1504/IJCBDD.2014.061652)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1111/bjh.12898](https://doi.org/10.1111/bjh.12898)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.3389/fimmu.2014.00613](https://doi.org/10.3389/fimmu.2014.00613)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1099/mic.0.081034-0](https://doi.org/10.1099/mic.0.081034-0)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.3389/fimmu.2014.00529](https://doi.org/10.3389/fimmu.2014.00529)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1371/journal.pone.0015920](https://doi.org/10.1371/journal.pone.0015920)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1021/nn800092m](https://doi.org/10.1021/nn800092m)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1007/s11051-007-9342-3](https://doi.org/10.1007/s11051-007-9342-3)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1021/jp0666380](https://doi.org/10.1021/jp0666380)</t>
+  </si>
+  <si>
+    <t>[https://doi.org/10.1021/jp054667p](https://doi.org/10.1021/jp054667p)</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D56"/>
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1210,10 +1258,10 @@
         <v>2021</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1227,7 +1275,7 @@
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1241,7 +1289,7 @@
         <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1255,12 +1303,12 @@
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1269,7 +1317,7 @@
         <v>2020</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1283,7 +1331,7 @@
         <v>2019</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1297,7 +1345,7 @@
         <v>2019</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1310,6 +1358,9 @@
       <c r="C9">
         <v>2019</v>
       </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1321,6 +1372,9 @@
       <c r="C10">
         <v>2019</v>
       </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1332,6 +1386,9 @@
       <c r="C11">
         <v>2019</v>
       </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1343,6 +1400,9 @@
       <c r="C12">
         <v>2019</v>
       </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1354,6 +1414,9 @@
       <c r="C13">
         <v>2018</v>
       </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1365,6 +1428,9 @@
       <c r="C14">
         <v>2018</v>
       </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1376,6 +1442,9 @@
       <c r="C15">
         <v>2018</v>
       </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1387,27 +1456,39 @@
       <c r="C16">
         <v>2018</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
       <c r="C17">
         <v>2018</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
       </c>
       <c r="C18">
         <v>2018</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1415,10 +1496,13 @@
         <v>34</v>
       </c>
       <c r="C19">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2017</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1428,8 +1512,11 @@
       <c r="C20">
         <v>2017</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1439,63 +1526,81 @@
       <c r="C21">
         <v>2017</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>2017</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>2017</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
       </c>
       <c r="C24">
         <v>2017</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
       <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>2016</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="C25">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
       </c>
       <c r="C26">
         <v>2016</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1505,8 +1610,11 @@
       <c r="C27">
         <v>2016</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1514,10 +1622,13 @@
         <v>49</v>
       </c>
       <c r="C28">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1525,283 +1636,192 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
       <c r="C30">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>2015</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
         <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
       </c>
       <c r="C32">
         <v>2015</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
       <c r="C33">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>2014</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>2014</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>2011</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
         <v>65</v>
       </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C39">
+        <v>2008</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>67</v>
       </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
       <c r="C40">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C41">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
       </c>
       <c r="C42">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52">
         <v>2005</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>90</v>
+      <c r="D42" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
